--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>CapaciteDiplome.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>CapaciteDiplome.capaciteDiplome</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme de capacité de médecine.</t>
+    <t>Diplôme de capacité de médecine.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R52-CapaciteDiplome?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>Diplôme de capacité de médecine.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R52-CapaciteDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R52-CapaciteDiplome/FHIR/TRE-R52-CapaciteDiplome?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.1640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>En France, la capacité de médecine est un diplôme (2 ans d'études) réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice ou un champ d'exercice plus large (réf. décret du 29 avril 1988). Les capacités ne confèrent pas la qualification aux spécialistes auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.Une capacité est un type de diplôme. La classe CapaciteDiplome est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-CapaciteDiplome.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/CapaciteDiplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CapaciteDiplome</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
